--- a/biology/Zoologie/Auximella/Auximella.xlsx
+++ b/biology/Zoologie/Auximella/Auximella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Auximella est un genre d'araignées aranéomorphes de la famille des Macrobunidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auximella est un genre d'araignées aranéomorphes de la famille des Macrobunidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Brésil, au Pérou et en Équateur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Brésil, au Pérou et en Équateur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 06/03/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 06/03/2024) :
 Auximella harpagula (Simon, 1906)
 Auximella minensis (Mello-Leitão, 1926)
 Auximella producta (Chamberlin, 1916)
@@ -578,10 +594,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Strand en 1908 dans les Dictynidae. Il est placé dans les Amaurobiidae par Lehtinen en 1967[2] puis dans les Macrobunidae par Gorneau, Crews, Cala-Riquelme, Montana, Spagna, Ballarin, Almeida-Silva et Esposito en 2023[3].
-Notolathys[4] a été placé en synonymie par Lehtinen en 1967[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Strand en 1908 dans les Dictynidae. Il est placé dans les Amaurobiidae par Lehtinen en 1967 puis dans les Macrobunidae par Gorneau, Crews, Cala-Riquelme, Montana, Spagna, Ballarin, Almeida-Silva et Esposito en 2023.
+Notolathys a été placé en synonymie par Lehtinen en 1967.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Strand, 1908 : « Exotisch araneologisches.-I. Amerikanische hauptsächlich in Peru, Bolivien und Josemitetal in Californien gesammelte Spinnen. » Zeitschrift für die gesammten Naturwissenschaften, vol. 61, no 5, p. 223-295 (texte intégral).</t>
         </is>
